--- a/INTLINE/data/578/THSE/Thailand General Index - Daily.xlsx
+++ b/INTLINE/data/578/THSE/Thailand General Index - Daily.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11999" uniqueCount="11998">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12006" uniqueCount="12005">
   <si>
     <t>1976-06-16</t>
   </si>
@@ -35987,6 +35987,27 @@
   </si>
   <si>
     <t>2022-06-01</t>
+  </si>
+  <si>
+    <t>2022-06-02</t>
+  </si>
+  <si>
+    <t>2022-06-06</t>
+  </si>
+  <si>
+    <t>2022-06-07</t>
+  </si>
+  <si>
+    <t>2022-06-08</t>
+  </si>
+  <si>
+    <t>2022-06-09</t>
+  </si>
+  <si>
+    <t>2022-06-10</t>
+  </si>
+  <si>
+    <t>2022-06-13</t>
   </si>
   <si>
     <t>Index</t>
@@ -36365,15 +36386,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:QSI2"/>
+  <dimension ref="A1:QSP2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11995">
+    <row r="1" spans="1:12002">
       <c r="A1" s="1" t="s">
-        <v>11994</v>
+        <v>12001</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -72357,10 +72378,31 @@
       <c r="QSI1" s="1" t="s">
         <v>11993</v>
       </c>
+      <c r="QSJ1" s="1" t="s">
+        <v>11994</v>
+      </c>
+      <c r="QSK1" s="1" t="s">
+        <v>11995</v>
+      </c>
+      <c r="QSL1" s="1" t="s">
+        <v>11996</v>
+      </c>
+      <c r="QSM1" s="1" t="s">
+        <v>11997</v>
+      </c>
+      <c r="QSN1" s="1" t="s">
+        <v>11998</v>
+      </c>
+      <c r="QSO1" s="1" t="s">
+        <v>11999</v>
+      </c>
+      <c r="QSP1" s="1" t="s">
+        <v>12000</v>
+      </c>
     </row>
-    <row r="2" spans="1:11995">
+    <row r="2" spans="1:12002">
       <c r="A2" s="1" t="s">
-        <v>11995</v>
+        <v>12002</v>
       </c>
       <c r="B2">
         <v>77.410004</v>
@@ -106755,16 +106797,37 @@
         <v>1663.41</v>
       </c>
       <c r="QSF2">
-        <v>1656.67</v>
-      </c>
-      <c r="QSG2" t="s">
-        <v>11995</v>
-      </c>
-      <c r="QSH2" t="s">
-        <v>11996</v>
-      </c>
-      <c r="QSI2" t="s">
-        <v>11997</v>
+        <v>1660.01</v>
+      </c>
+      <c r="QSG2">
+        <v>1647.67</v>
+      </c>
+      <c r="QSH2">
+        <v>1646.08</v>
+      </c>
+      <c r="QSI2">
+        <v>1631.92</v>
+      </c>
+      <c r="QSJ2">
+        <v>1636.89</v>
+      </c>
+      <c r="QSK2">
+        <v>1641.34</v>
+      </c>
+      <c r="QSL2">
+        <v>1632.62</v>
+      </c>
+      <c r="QSM2">
+        <v>1609.65</v>
+      </c>
+      <c r="QSN2" t="s">
+        <v>12002</v>
+      </c>
+      <c r="QSO2" t="s">
+        <v>12003</v>
+      </c>
+      <c r="QSP2" t="s">
+        <v>12004</v>
       </c>
     </row>
   </sheetData>

--- a/INTLINE/data/578/THSE/Thailand General Index - Daily.xlsx
+++ b/INTLINE/data/578/THSE/Thailand General Index - Daily.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:QSW2"/>
+  <dimension ref="A1:QSZ2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60399,15 +60399,30 @@
       </c>
       <c r="QSU1" s="1" t="inlineStr">
         <is>
+          <t>2022-06-23</t>
+        </is>
+      </c>
+      <c r="QSV1" s="1" t="inlineStr">
+        <is>
+          <t>2022-06-24</t>
+        </is>
+      </c>
+      <c r="QSW1" s="1" t="inlineStr">
+        <is>
+          <t>2022-06-27</t>
+        </is>
+      </c>
+      <c r="QSX1" s="1" t="inlineStr">
+        <is>
           <t>Index</t>
         </is>
       </c>
-      <c r="QSV1" s="1" t="inlineStr">
+      <c r="QSY1" s="1" t="inlineStr">
         <is>
           <t>Label</t>
         </is>
       </c>
-      <c r="QSW1" s="1" t="inlineStr">
+      <c r="QSZ1" s="1" t="inlineStr">
         <is>
           <t>unit</t>
         </is>
@@ -95380,19 +95395,28 @@
         <v>1574.52</v>
       </c>
       <c r="QST2" t="n">
-        <v>1565</v>
-      </c>
-      <c r="QSU2" t="inlineStr">
+        <v>1560.02</v>
+      </c>
+      <c r="QSU2" t="n">
+        <v>1557.61</v>
+      </c>
+      <c r="QSV2" t="n">
+        <v>1568.76</v>
+      </c>
+      <c r="QSW2" t="n">
+        <v>1580.2</v>
+      </c>
+      <c r="QSX2" t="inlineStr">
         <is>
           <t>SETI</t>
         </is>
       </c>
-      <c r="QSV2" t="inlineStr">
+      <c r="QSY2" t="inlineStr">
         <is>
           <t>General Index, Close Price</t>
         </is>
       </c>
-      <c r="QSW2" t="inlineStr">
+      <c r="QSZ2" t="inlineStr">
         <is>
           <t>Index: 1975.04.30=100</t>
         </is>
